--- a/Design/DataTable/MapGimmickLaneBuff.xlsx
+++ b/Design/DataTable/MapGimmickLaneBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\PLUM\2022 8월 게임 프로젝트\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BC428-1A19-4087-B814-AB33D41F3EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8BD299-7218-444D-B35C-3C437AADD97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,22 @@
   </si>
   <si>
     <t>MonsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881673F-BBF5-4E06-A02C-DACF7E12984D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -567,11 +583,12 @@
     <col min="1" max="2" width="8.796875" style="1"/>
     <col min="3" max="3" width="8.796875" style="2"/>
     <col min="4" max="4" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.69921875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="12.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="65.69921875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,14 +601,17 @@
       <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,14 +621,14 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>101110</v>
       </c>
@@ -618,15 +638,18 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>102110</v>
       </c>
@@ -636,15 +659,18 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>103110</v>
       </c>
@@ -654,15 +680,18 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>104110</v>
       </c>
@@ -674,15 +703,18 @@
         <v>0</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>105110</v>
       </c>
@@ -693,15 +725,18 @@
         <v>8</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>106110</v>
       </c>
@@ -713,15 +748,18 @@
         <v>8</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>201111</v>
       </c>
@@ -732,15 +770,18 @@
         <v>0</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>201121</v>
       </c>
@@ -752,15 +793,18 @@
         <v>0</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>201131</v>
       </c>
@@ -772,15 +816,18 @@
         <v>0</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>201141</v>
       </c>
@@ -792,15 +839,18 @@
         <v>0</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>202111</v>
       </c>
@@ -811,15 +861,18 @@
         <v>0</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>202121</v>
       </c>
@@ -831,15 +884,18 @@
         <v>0</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>202131</v>
       </c>
@@ -851,15 +907,18 @@
         <v>0</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>202141</v>
       </c>
@@ -871,15 +930,18 @@
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>203111</v>
       </c>
@@ -890,15 +952,18 @@
         <v>15</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>203121</v>
       </c>
@@ -910,15 +975,18 @@
         <v>15</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>203131</v>
       </c>
@@ -930,15 +998,18 @@
         <v>15</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>203141</v>
       </c>
@@ -950,15 +1021,18 @@
         <v>15</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>204111</v>
       </c>
@@ -969,15 +1043,18 @@
         <v>15</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>204121</v>
       </c>
@@ -989,15 +1066,18 @@
         <v>15</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>204131</v>
       </c>
@@ -1009,15 +1089,18 @@
         <v>15</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>204141</v>
       </c>
@@ -1029,15 +1112,18 @@
         <v>15</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>301011</v>
       </c>
@@ -1048,12 +1134,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="3"/>
+      <c r="G25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>301021</v>
       </c>
@@ -1061,12 +1148,12 @@
         <f>B25</f>
         <v>5</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>301031</v>
       </c>
@@ -1078,12 +1165,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="3"/>
+      <c r="G27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>301041</v>
       </c>
@@ -1095,12 +1183,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="3"/>
+      <c r="G28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>301051</v>
       </c>
@@ -1112,12 +1201,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="3"/>
+      <c r="G29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>301061</v>
       </c>
@@ -1129,10 +1219,11 @@
         <v>3</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="3"/>
+      <c r="G30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
